--- a/PetOperation/CN/Game/General.xlsx
+++ b/PetOperation/CN/Game/General.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -37,22 +37,82 @@
     <t xml:space="preserve">text</t>
   </si>
   <si>
-    <t xml:space="preserve">actOrderVanguard</t>
+    <t xml:space="preserve">actReviseOperation</t>
   </si>
   <si>
     <t xml:space="preserve">act</t>
   </si>
   <si>
-    <t xml:space="preserve">前衛にする</t>
+    <t xml:space="preserve">作戦</t>
+  </si>
+  <si>
+    <t xml:space="preserve">下达命令</t>
+  </si>
+  <si>
+    <t xml:space="preserve">po_operation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">命令</t>
+  </si>
+  <si>
+    <t xml:space="preserve">po_attack_target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">標的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">攻击目标</t>
+  </si>
+  <si>
+    <t xml:space="preserve">po_at_free</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自由</t>
+  </si>
+  <si>
+    <t xml:space="preserve">想怎么瞄就怎么瞄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">po_at_ally</t>
+  </si>
+  <si>
+    <t xml:space="preserve">仲間と同じ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">和同伴瞄准同一个敌人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">po_at_master</t>
+  </si>
+  <si>
+    <t xml:space="preserve">主人と同じ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">与主人瞄准同一个敌人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">po_formation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">隊列</t>
+  </si>
+  <si>
+    <t xml:space="preserve">队列</t>
+  </si>
+  <si>
+    <t xml:space="preserve">po_f_vanguard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">前衛</t>
   </si>
   <si>
     <t xml:space="preserve">先锋</t>
   </si>
   <si>
-    <t xml:space="preserve">actOrderRearGuard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">後衛にする</t>
+    <t xml:space="preserve">po_f_rear_guard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">後衛</t>
   </si>
   <si>
     <t xml:space="preserve">后卫</t>
@@ -145,7 +205,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -159,6 +219,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -298,15 +362,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="1" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
@@ -327,7 +391,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -336,24 +400,101 @@
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="B5" s="4"/>
       <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="A2:E2"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
